--- a/scalpel/typeinfer/evaluation/evaluation_outputs/sherlock-project__sherlock.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/sherlock-project__sherlock.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3168,14 +3168,28 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr"/>
       <c r="B86" s="2" t="inlineStr"/>
-      <c r="C86" s="2" t="inlineStr"/>
-      <c r="D86" s="2" t="inlineStr"/>
-      <c r="E86" s="2" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>492.86</v>
+      </c>
+      <c r="E86" s="2" t="inlineStr"/>
+      <c r="F86" s="2" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr"/>
+      <c r="B87" s="2" t="inlineStr"/>
+      <c r="C87" s="2" t="inlineStr"/>
+      <c r="D87" s="2" t="inlineStr"/>
+      <c r="E87" s="2" t="inlineStr">
         <is>
           <t>Accuracy over PyType</t>
         </is>
       </c>
-      <c r="F86" s="2" t="n">
+      <c r="F87" s="2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/sherlock-project__sherlock.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/sherlock-project__sherlock.xlsx
@@ -3168,16 +3168,16 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr"/>
       <c r="B86" s="2" t="inlineStr"/>
-      <c r="C86" s="2" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr"/>
+      <c r="D86" s="2" t="inlineStr"/>
+      <c r="E86" s="2" t="inlineStr">
         <is>
           <t>Scalpel Accuracy:</t>
         </is>
       </c>
-      <c r="D86" s="2" t="n">
-        <v>492.86</v>
-      </c>
-      <c r="E86" s="2" t="inlineStr"/>
-      <c r="F86" s="2" t="inlineStr"/>
+      <c r="F86" s="2" t="n">
+        <v>83.13000000000001</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr"/>
@@ -3186,7 +3186,7 @@
       <c r="D87" s="2" t="inlineStr"/>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Accuracy over PyType</t>
+          <t>Accuracy vs PyType</t>
         </is>
       </c>
       <c r="F87" s="2" t="n">
